--- a/src/main/resources/prueba.xlsx
+++ b/src/main/resources/prueba.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desarrollo\Scala\Prueba_post_json_bc\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E7FD0BF-16AF-4C42-8667-11A570FEB474}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D12514-C5EF-4020-AD96-A336032E7AAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1830" yWindow="1830" windowWidth="17280" windowHeight="9102" xr2:uid="{BB6D7E92-B9F6-4865-BEB6-C587EB447193}"/>
+    <workbookView xWindow="2400" yWindow="2118" windowWidth="17280" windowHeight="9102" xr2:uid="{BB6D7E92-B9F6-4865-BEB6-C587EB447193}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>is_return</t>
   </si>
@@ -74,40 +74,49 @@
     <t>entry_type</t>
   </si>
   <si>
-    <t>30000</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
     <t>120.4</t>
   </si>
   <si>
     <t>25.28</t>
   </si>
   <si>
+    <t>Consumption</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>AC-000010</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>PROD</t>
+  </si>
+  <si>
+    <t>Purchase Receipt</t>
+  </si>
+  <si>
+    <t>20000</t>
+  </si>
+  <si>
+    <t>1906-S</t>
+  </si>
+  <si>
+    <t>67.4</t>
+  </si>
+  <si>
+    <t>AC-000011</t>
+  </si>
+  <si>
+    <t>PC-000017</t>
+  </si>
+  <si>
+    <t>PC-000016</t>
+  </si>
+  <si>
     <t>2020-04-16</t>
-  </si>
-  <si>
-    <t>ADM</t>
-  </si>
-  <si>
-    <t>Consumption</t>
-  </si>
-  <si>
-    <t>1001</t>
-  </si>
-  <si>
-    <t>20.4</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>AC-000009</t>
-  </si>
-  <si>
-    <t>PC-000010</t>
   </si>
 </sst>
 </file>
@@ -150,11 +159,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -472,8 +483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D80A7D5-F0F1-48EE-A338-418AAD36BA2F}">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -521,84 +532,84 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="3">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="E3" s="2">
+        <v>20</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="3">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/prueba.xlsx
+++ b/src/main/resources/prueba.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desarrollo\Scala\Prueba_post_json_bc\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D12514-C5EF-4020-AD96-A336032E7AAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF9E381-11F0-4CD2-8CD4-B69E2C183AAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="2118" windowWidth="17280" windowHeight="9102" xr2:uid="{BB6D7E92-B9F6-4865-BEB6-C587EB447193}"/>
+    <workbookView xWindow="2736" yWindow="2454" windowWidth="17280" windowHeight="9102" xr2:uid="{BB6D7E92-B9F6-4865-BEB6-C587EB447193}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>is_return</t>
   </si>
@@ -86,9 +86,6 @@
     <t>false</t>
   </si>
   <si>
-    <t>AC-000010</t>
-  </si>
-  <si>
     <t>10000</t>
   </si>
   <si>
@@ -107,16 +104,13 @@
     <t>67.4</t>
   </si>
   <si>
-    <t>AC-000011</t>
-  </si>
-  <si>
-    <t>PC-000017</t>
-  </si>
-  <si>
-    <t>PC-000016</t>
-  </si>
-  <si>
     <t>2020-04-16</t>
+  </si>
+  <si>
+    <t>AC-000012</t>
+  </si>
+  <si>
+    <t>PC-000018</t>
   </si>
 </sst>
 </file>
@@ -484,7 +478,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -535,13 +529,13 @@
         <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
@@ -559,16 +553,16 @@
         <v>14</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>25</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -579,16 +573,16 @@
         <v>24</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="E3" s="2">
         <v>20</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -600,13 +594,13 @@
         <v>14</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>15</v>
